--- a/data_component_types.xlsx
+++ b/data_component_types.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\.shortcut-targets-by-id\1pxYQnB_JBE8lYKR7m-VcgWZ9oyOJcQnc\AstroDB\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/944a82e2ddcde9eb/Documents/GithubC/smrgeoinfo/ada-metadata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{868BC95A-F793-46D1-881E-560C94B821E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="13_ncr:9_{868BC95A-F793-46D1-881E-560C94B821E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B38B94D6-CDE6-4F6A-868D-E9B65E5BF5BE}"/>
   <bookViews>
-    <workbookView xWindow="1073" yWindow="1073" windowWidth="17662" windowHeight="8745" xr2:uid="{11051BF3-27C2-4ECF-88C1-AD6A98540F52}"/>
+    <workbookView xWindow="11340" yWindow="0" windowWidth="13200" windowHeight="12135" xr2:uid="{11051BF3-27C2-4ECF-88C1-AD6A98540F52}"/>
   </bookViews>
   <sheets>
     <sheet name="data_component_types" sheetId="1" r:id="rId1"/>
@@ -2263,18 +2263,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E8DD6CB-E5FE-478D-828A-5198CC600E74}">
   <dimension ref="A1:D76"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
       <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.86328125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="31" customWidth="1"/>
+    <col min="4" max="4" width="30.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2285,7 +2286,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>61</v>
       </c>
@@ -2299,7 +2300,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -2313,7 +2314,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>37</v>
       </c>
@@ -2327,7 +2328,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>50</v>
       </c>
@@ -2341,7 +2342,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>16</v>
       </c>
@@ -2352,7 +2353,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>22</v>
       </c>
@@ -2366,7 +2367,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>57</v>
       </c>
@@ -2380,7 +2381,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>53</v>
       </c>
@@ -2394,7 +2395,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>52</v>
       </c>
@@ -2408,7 +2409,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>56</v>
       </c>
@@ -2422,7 +2423,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>28</v>
       </c>
@@ -2436,7 +2437,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>41</v>
       </c>
@@ -2450,7 +2451,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>25</v>
       </c>
@@ -2464,7 +2465,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>14</v>
       </c>
@@ -2478,7 +2479,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>69</v>
       </c>
@@ -2492,7 +2493,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>71</v>
       </c>
@@ -2506,7 +2507,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>64</v>
       </c>
@@ -2517,7 +2518,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>18</v>
       </c>
@@ -2531,7 +2532,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>12</v>
       </c>
@@ -2545,7 +2546,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>27</v>
       </c>
@@ -2559,7 +2560,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>63</v>
       </c>
@@ -2573,7 +2574,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>42</v>
       </c>
@@ -2584,7 +2585,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>32</v>
       </c>
@@ -2595,7 +2596,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>55</v>
       </c>
@@ -2609,7 +2610,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>70</v>
       </c>
@@ -2623,7 +2624,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>68</v>
       </c>
@@ -2637,7 +2638,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>60</v>
       </c>
@@ -2651,7 +2652,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>23</v>
       </c>
@@ -2665,7 +2666,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>40</v>
       </c>
@@ -2679,7 +2680,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>29</v>
       </c>
@@ -2690,7 +2691,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>65</v>
       </c>
@@ -2704,7 +2705,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>58</v>
       </c>
@@ -2718,7 +2719,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>75</v>
       </c>
@@ -2732,7 +2733,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>49</v>
       </c>
@@ -2746,7 +2747,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>5</v>
       </c>
@@ -2757,7 +2758,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>36</v>
       </c>
@@ -2771,7 +2772,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>24</v>
       </c>
@@ -2785,7 +2786,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>33</v>
       </c>
@@ -2796,7 +2797,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>45</v>
       </c>
@@ -2810,7 +2811,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>10</v>
       </c>
@@ -2824,7 +2825,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>19</v>
       </c>
@@ -2835,7 +2836,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>26</v>
       </c>
@@ -2846,7 +2847,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>38</v>
       </c>
@@ -2860,7 +2861,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>47</v>
       </c>
@@ -2874,7 +2875,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>3</v>
       </c>
@@ -2888,7 +2889,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>46</v>
       </c>
@@ -2899,7 +2900,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>15</v>
       </c>
@@ -2913,7 +2914,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>34</v>
       </c>
@@ -2927,7 +2928,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>21</v>
       </c>
@@ -2941,7 +2942,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>8</v>
       </c>
@@ -2955,12 +2956,12 @@
         <v>87</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D52" s="5" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>6</v>
       </c>
@@ -2974,7 +2975,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>39</v>
       </c>
@@ -2988,7 +2989,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>54</v>
       </c>
@@ -2999,7 +3000,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>73</v>
       </c>
@@ -3013,7 +3014,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>2</v>
       </c>
@@ -3027,7 +3028,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>72</v>
       </c>
@@ -3038,7 +3039,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>11</v>
       </c>
@@ -3052,7 +3053,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>48</v>
       </c>
@@ -3066,7 +3067,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>59</v>
       </c>
@@ -3080,7 +3081,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>17</v>
       </c>
@@ -3094,7 +3095,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>30</v>
       </c>
@@ -3105,7 +3106,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>44</v>
       </c>
@@ -3119,7 +3120,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>67</v>
       </c>
@@ -3133,7 +3134,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>43</v>
       </c>
@@ -3144,7 +3145,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>20</v>
       </c>
@@ -3158,7 +3159,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>62</v>
       </c>
@@ -3172,7 +3173,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>31</v>
       </c>
@@ -3186,7 +3187,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>74</v>
       </c>
@@ -3197,7 +3198,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>13</v>
       </c>
@@ -3211,7 +3212,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>7</v>
       </c>
@@ -3225,7 +3226,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>35</v>
       </c>
@@ -3239,7 +3240,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>51</v>
       </c>
@@ -3250,7 +3251,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>9</v>
       </c>
@@ -3264,7 +3265,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>66</v>
       </c>
